--- a/data/results/00_conclusions.xlsx
+++ b/data/results/00_conclusions.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga84kuj\Documents\R\Multilab_Analysis\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF69B9-B704-4E42-825B-5C16BDEC2AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAB2CAB-F087-460E-B76B-F7B9053004B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E8087CFC-00D6-4980-BC5D-45D2F59BBB7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Recommendations" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="255">
   <si>
     <t>SUS</t>
   </si>
@@ -707,6 +708,104 @@
   </si>
   <si>
     <t>Some tests implied equivalence as well as difference while other tests implied neither equivalence nor difference. Only tendencies and 	trends may be interpreted here. No final conclusions can be drawn.</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Definition of Usability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assess usability by investigating all three facets effectivity, efficiency, and satistfaction (ISO).
+</t>
+  </si>
+  <si>
+    <t>focus not only on RtI, but…</t>
+  </si>
+  <si>
+    <t>Conditions of Use</t>
+  </si>
+  <si>
+    <t>First contact without in-depth instruction --&gt; if this doesn't work, rest won't work either. Continue with learning development, long term studies…</t>
+  </si>
+  <si>
+    <t>Testing Environment</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>Cultural differences: satisfaction</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>def usability: effectivity, efficiciency, satisfaction + all Test Cases --&gt; requires combination of metrics</t>
+  </si>
+  <si>
+    <t>qualitative, not standardized self-reported only</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>inquire backgrounds / knowledge in retrospective</t>
+  </si>
+  <si>
+    <t>sample size sufficient for tests + identify different problems</t>
+  </si>
+  <si>
+    <t>as simple as possible, people were overloaded</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>DS: is faster, more robust</t>
+  </si>
+  <si>
+    <t>standardization reasons</t>
+  </si>
+  <si>
+    <t>within design better for this new topic. Regarding preferences; time problem</t>
+  </si>
+  <si>
+    <t>max. 3h. People were overloaded</t>
+  </si>
+  <si>
+    <t>start with driving simulator: relative validity is given. 
+Increase complexity in driving simulator, to increase workload induced by distractions (road users, curves etc). --&gt; makes differences more extreme and more realistic for future use</t>
+  </si>
+  <si>
+    <t>Cover all aspects of the NHTSA guide and therefore standardized</t>
+  </si>
+  <si>
+    <t>cover different HMI aspects: how to (de)activate (under time pressure), …</t>
+  </si>
+  <si>
+    <t>cover all aspects of HMI: (de)activation - driver- and system-initiated.</t>
+  </si>
+  <si>
+    <t>hier die tabelle aufzeigen: effektivität, efficzienz und die NHTSA metriken</t>
+  </si>
+  <si>
+    <t>one comment to each metric? E.g., eye-tracking: cumbersome, but worth the effort? Prolongs test duration etc.</t>
+  </si>
+  <si>
+    <t>ER: continious: observations such as: hesitations, asks questions etc.</t>
+  </si>
+  <si>
+    <t>only if time allows. Learning effects!</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>HMI concepts: within-comparison is best to compare satisfaction (strong influence of novelty AD); performance measures best comparable, only few treshold values exist (controllability)</t>
   </si>
 </sst>
 </file>
@@ -747,7 +846,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +856,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -785,6 +902,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2151,15 +2277,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96900CBC-027B-45A0-9875-A10D78327DA4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="1" max="1" width="14.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="6" customWidth="1"/>
     <col min="3" max="4" width="85.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4" customWidth="1"/>
@@ -2181,7 +2307,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2193,6 +2319,7 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>198</v>
       </c>
@@ -2204,7 +2331,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2218,7 +2345,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2232,7 +2359,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>201</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2246,7 +2373,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2260,7 +2387,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2274,7 +2401,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2288,7 +2415,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>217</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2302,7 +2429,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2310,10 +2437,158 @@
       </c>
       <c r="D11" s="4" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2283A20-008E-4C84-9084-EEEF616C1EAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>